--- a/Nextion/Интерфейс.xlsx
+++ b/Nextion/Интерфейс.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Библиотека\НВГУ\Robotics\Solver3\Nextion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B097B5AD-DE81-4660-AF3E-25C9358C0C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C754DCD-3597-4A5A-B6E6-6E67A76D5D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8688" windowHeight="12360" activeTab="1" xr2:uid="{BB4B45CB-B034-49D6-90F0-6283A4BBB4BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BB4B45CB-B034-49D6-90F0-6283A4BBB4BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Диалоги" sheetId="4" r:id="rId3"/>
+    <sheet name="Тексты попапов" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="221">
   <si>
     <t>MenuA - 0</t>
   </si>
@@ -679,6 +681,60 @@
   </si>
   <si>
     <t>загрузить слайдеры захвата</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Ок</t>
+  </si>
+  <si>
+    <t>Ошибка, предупреждение</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>отмена</t>
+  </si>
+  <si>
+    <t>вопросы</t>
+  </si>
+  <si>
+    <t>11,12,13</t>
+  </si>
+  <si>
+    <t>Предупреждения</t>
+  </si>
+  <si>
+    <t>Ошибки</t>
+  </si>
+  <si>
+    <t>Вопросы</t>
+  </si>
+  <si>
+    <t>Standby</t>
+  </si>
+  <si>
+    <t>Вставка невозможна</t>
+  </si>
+  <si>
+    <t>Куб захвачен?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Левым </t>
   </si>
 </sst>
 </file>
@@ -712,7 +768,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -720,11 +776,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -733,6 +815,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2500,563 +2584,873 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51875C6-796E-4228-9334-D0DAFA08F9EE}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>141</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>138</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>140</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ref="A5:A36" si="0">A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>155</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>156</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>145</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>146</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>106</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>108</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>100</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>104</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>124</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>125</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>176</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>179</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>142</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>151</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>149</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>153</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>180</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>182</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
         <v>118</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>119</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>133</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>134</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>147</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>148</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>131</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>132</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>135</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>136</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>121</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>122</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>158</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>159</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>160</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>161</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>165</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>114</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>173</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>175</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>169</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>112</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>102</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>105</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>163</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>164</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>177</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>178</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>143</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>152</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>150</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>154</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>181</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>183</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>168</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>111</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>127</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>167</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>116</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>128</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>129</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>166</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>115</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>162</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>109</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
         <v>201</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>202</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" ref="A39:A41" si="1">A38+1</f>
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
         <v>184</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>185</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
         <v>186</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>187</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
         <v>188</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>189</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>201</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>202</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" ref="A44:A46" si="2">A43+1</f>
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
         <v>190</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>191</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
         <v>186</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>187</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
         <v>188</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>189</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
         <v>199</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>200</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" ref="A49:A53" si="3">A48+1</f>
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
         <v>192</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>193</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
         <v>194</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>191</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
         <v>188</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>189</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
         <v>195</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>198</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
         <v>196</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>197</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" ref="A58:A59" si="4">A57+1</f>
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C36">
-    <sortCondition ref="A3:A36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D36">
+    <sortCondition ref="B3:B36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D1905F-0062-458A-8446-86D8F4BB2027}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E071C-B9F9-46AF-A0E6-97914ACED6BE}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>